--- a/doc/Battery Design.xlsx
+++ b/doc/Battery Design.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\David\Documents\VSCode\stan-base\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\David\Documents\Projets\Stan\stan-base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF832E3F-DE9C-4C98-9204-76CFA32B9F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CF1A12E2-4765-469A-9512-A1CF7E8CA782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Analog count</t>
   </si>
@@ -59,14 +59,23 @@
   <si>
     <t>Diff SoC (%)</t>
   </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>Analog Count</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -108,8 +117,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,7 +137,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -142,6 +151,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -222,6 +232,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -259,61 +270,61 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>971.0828025477706</c:v>
+                  <c:v>3755.0000000019995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>959.52229299363046</c:v>
+                  <c:v>3711.3095238114993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>950.27388535031844</c:v>
+                  <c:v>3676.3571428590999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>944.10828025477701</c:v>
+                  <c:v>3653.0555555574997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>930.23566878980887</c:v>
+                  <c:v>3600.6269841288999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>920.98726114649662</c:v>
+                  <c:v>3565.6746031764997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>914.05095541401272</c:v>
+                  <c:v>3539.4603174621993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>904.80254777070058</c:v>
+                  <c:v>3504.5079365097999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>895.55414012738845</c:v>
+                  <c:v>3469.5555555573997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>890.92993630573244</c:v>
+                  <c:v>3452.0793650811997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>887.07643312101914</c:v>
+                  <c:v>3437.5158730176995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>882.4522292993629</c:v>
+                  <c:v>3420.0396825414996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>877.828025477707</c:v>
+                  <c:v>3402.5634920652997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>875.51592356687888</c:v>
+                  <c:v>3393.8253968271997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>870.89171974522299</c:v>
+                  <c:v>3376.3492063509998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>866.26751592356686</c:v>
+                  <c:v>3358.8730158747999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>861.64331210191074</c:v>
+                  <c:v>3341.3968253985995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>857.01910828025473</c:v>
+                  <c:v>3323.9206349223996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>852.39490445859872</c:v>
+                  <c:v>3306.4444444461997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,7 +396,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-FDFD-4899-ACB2-DCC1EA6819F3}"/>
             </c:ext>
@@ -399,14 +410,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="494551648"/>
-        <c:axId val="494549984"/>
+        <c:axId val="488322192"/>
+        <c:axId val="488347176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="494551648"/>
+        <c:axId val="488322192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="700"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -461,12 +471,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494549984"/>
+        <c:crossAx val="488347176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494549984"/>
+        <c:axId val="488347176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -524,7 +534,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494551648"/>
+        <c:crossAx val="488322192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -538,13 +548,725 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.228412073490814E-2"/>
+                  <c:y val="-9.6759259259259264E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$B$5:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$C$5:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="595591032"/>
+        <c:axId val="589519776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="595591032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589519776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="589519776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595591032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39595122484689416"/>
+          <c:y val="6.0185185185185182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analog Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="#,##0.00000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$C$5:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$B$5:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="597211584"/>
+        <c:axId val="597209624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="597211584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597209624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="597209624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597211584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -620,7 +1342,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1156,7 +2990,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6C2043-3168-411F-8E2B-B95A9F27DB8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A6C2043-3168-411F-8E2B-B95A9F27DB8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,6 +3003,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1473,11 +3372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDFF60F-E5A4-45F3-8BE0-3B04F655B761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,28 +3426,28 @@
         <v>12.6</v>
       </c>
       <c r="C2" s="2">
-        <f>B2*968/12.56</f>
-        <v>971.0828025477706</v>
+        <f>B2*291.26984127+85</f>
+        <v>3755.0000000019995</v>
       </c>
       <c r="D2" s="5">
         <f>$D$23</f>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E2" s="4">
         <f>D2*$C2+E$23</f>
-        <v>-5.5308875708013169E-2</v>
+        <v>-3.9632313170727788E-3</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2:G2" si="0">E2*$C2+F$23</f>
-        <v>26.953233769069854</v>
+        <v>7.4648439918571743</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" si="0"/>
-        <v>99.524170052151021</v>
+        <v>99.524170052154659</v>
       </c>
       <c r="H2" s="3">
         <f>A2-G2</f>
-        <v>0.47582994784897892</v>
+        <v>0.47582994784534094</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,28 +3458,28 @@
         <v>12.45</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C22" si="1">B3*968/12.56</f>
-        <v>959.52229299363046</v>
+        <f t="shared" ref="C3:C22" si="1">B3*291.26984127+85</f>
+        <v>3711.3095238114993</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D22" si="2">$D$23</f>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:G22" si="3">D3*$C3+E$23</f>
-        <v>-5.5642459911984632E-2</v>
+        <v>-3.9865866399227184E-3</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="3"/>
-        <v>27.272551074819937</v>
+        <v>7.5513206232285146</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="3"/>
-        <v>94.323126955714542</v>
+        <v>94.323126955710904</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H22" si="4">A3-G3</f>
-        <v>0.67687304428545758</v>
+        <v>0.67687304428909556</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1592,27 +3491,27 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>950.27388535031844</v>
+        <v>3676.3571428590999</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="3"/>
-        <v>-5.5909327275161798E-2</v>
+        <v>-4.0052708982026694E-3</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="3"/>
-        <v>27.533558140283063</v>
+        <v>7.6219713117803174</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="3"/>
-        <v>90.123655344261351</v>
+        <v>90.123655344250437</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="4"/>
-        <v>-0.12365534426135127</v>
+        <v>-0.12365534425043734</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1624,27 +3523,27 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>944.10828025477701</v>
+        <v>3653.0555555574997</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="3"/>
-        <v>-5.6087238850613244E-2</v>
+        <v>-4.0177270703893042E-3</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="3"/>
-        <v>27.710305181882212</v>
+        <v>7.6697973922739777</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="3"/>
-        <v>87.230954460439534</v>
+        <v>87.230954460417706</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="4"/>
-        <v>-2.2309544604395342</v>
+        <v>-2.2309544604177063</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1656,27 +3555,27 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>930.23566878980887</v>
+        <v>3600.6269841288999</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="3"/>
-        <v>-5.6487539895379003E-2</v>
+        <v>-4.0457534578092307E-3</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="3"/>
-        <v>28.116007344504695</v>
+        <v>7.7795285161526646</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="3"/>
-        <v>80.215279673091572</v>
+        <v>80.215279673084297</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="4"/>
-        <v>-0.21527967309157248</v>
+        <v>-0.21527967308429652</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1688,27 +3587,27 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>920.98726114649662</v>
+        <v>3565.6746031764997</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="3"/>
-        <v>-5.6754407258556176E-2</v>
+        <v>-4.0644377160891816E-3</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="3"/>
-        <v>28.392645698323093</v>
+        <v>7.8543152470214928</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="3"/>
-        <v>74.967382260034356</v>
+        <v>74.967382260030718</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="4"/>
-        <v>3.2617739965644432E-2</v>
+        <v>3.2617739969282411E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,27 +3619,27 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>914.05095541401272</v>
+        <v>3539.4603174621993</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="3"/>
-        <v>-5.6954557780939052E-2</v>
+        <v>-4.0784509097991457E-3</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="3"/>
-        <v>28.603363842523663</v>
+        <v>7.9112624355217029</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="3"/>
-        <v>70.63443217196982</v>
+        <v>70.634432171958906</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="4"/>
-        <v>-0.63443217196982005</v>
+        <v>-0.63443217195890611</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1752,27 +3651,27 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>904.80254777070058</v>
+        <v>3504.5079365097999</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="3"/>
-        <v>-5.7221425144116225E-2</v>
+        <v>-4.0971351680790967E-3</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="3"/>
-        <v>28.88864053990681</v>
+        <v>7.9883348739867763</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="3"/>
-        <v>64.217945998218056</v>
+        <v>64.217945998207142</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="4"/>
-        <v>0.78205400178194395</v>
+        <v>0.78205400179285789</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,27 +3683,27 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>895.55414012738845</v>
+        <v>3469.5555555573997</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="3"/>
-        <v>-5.7488292507293398E-2</v>
+        <v>-4.1158194263590485E-3</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="3"/>
-        <v>29.178853433612666</v>
+        <v>8.0667134310782771</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="3"/>
-        <v>56.945380500674219</v>
+        <v>56.945380500666943</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="4"/>
-        <v>3.0546194993257814</v>
+        <v>3.0546194993330573</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1816,27 +3715,27 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>890.92993630573244</v>
+        <v>3452.0793650811997</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="3"/>
-        <v>-5.7621726188881978E-2</v>
+        <v>-4.125161555499024E-3</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>29.32581095408662</v>
+        <v>8.1063925041089391</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="3"/>
-        <v>52.945269296931656</v>
+        <v>52.945269296920742</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="4"/>
-        <v>2.0547307030683442</v>
+        <v>2.0547307030792581</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1848,27 +3747,27 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>887.07643312101914</v>
+        <v>3437.5158730176995</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="3"/>
-        <v>-5.7732920923539127E-2</v>
+        <v>-4.1329466631156702E-3</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="3"/>
-        <v>29.449218230862655</v>
+        <v>8.1397078306777324</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="3"/>
-        <v>49.409850294723583</v>
+        <v>49.409850294709031</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
-        <v>0.59014970527641708</v>
+        <v>0.590149705290969</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1880,27 +3779,27 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>882.4522292993629</v>
+        <v>3420.0396825414996</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="3"/>
-        <v>-5.7866354605127721E-2</v>
+        <v>-4.1422887922556457E-3</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>29.598438174651186</v>
+        <v>8.1799855414121723</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="3"/>
-        <v>44.910134858891979</v>
+        <v>44.910134858881065</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="4"/>
-        <v>8.9865141108020907E-2</v>
+        <v>8.9865141118934844E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1912,27 +3811,27 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>877.828025477707</v>
+        <v>3402.5634920652997</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="3"/>
-        <v>-5.79997882867163E-2</v>
+        <v>-4.1516309213956212E-3</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="3"/>
-        <v>29.748892167520388</v>
+        <v>8.2205897818032216</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="3"/>
-        <v>40.113655422235752</v>
+        <v>40.113655422228476</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="4"/>
-        <v>-0.11365542223575176</v>
+        <v>-0.1136554222284758</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1944,19 +3843,19 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>875.51592356687888</v>
+        <v>3393.8253968271997</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="3"/>
-        <v>-5.8066505127510604E-2</v>
+        <v>-4.1563019859656089E-3</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="3"/>
-        <v>29.824581932360239</v>
+        <v>8.241014350619972</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="3"/>
@@ -1976,27 +3875,27 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>870.89171974522299</v>
+        <v>3376.3492063509998</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="3"/>
-        <v>-5.8199938809099183E-2</v>
+        <v>-4.1656441151055844E-3</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="3"/>
-        <v>29.97688699885046</v>
+        <v>8.2821083854959312</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="3"/>
-        <v>32.325054895682115</v>
+        <v>32.325054895685753</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
-        <v>-2.3250548956821149</v>
+        <v>-2.3250548956857529</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,27 +3907,27 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>866.26751592356686</v>
+        <v>3358.8730158747999</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="3"/>
-        <v>-5.8333372490687763E-2</v>
+        <v>-4.1749862442455607E-3</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="3"/>
-        <v>30.130426114421375</v>
+        <v>8.3235289500284928</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="3"/>
-        <v>26.71176771696264</v>
+        <v>26.711767716948088</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>-1.7117677169626404</v>
+        <v>-1.7117677169480885</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2040,27 +3939,27 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>861.64331210191074</v>
+        <v>3341.3968253985995</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="3"/>
-        <v>-5.8466806172276356E-2</v>
+        <v>-4.1843283733855362E-3</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="3"/>
-        <v>30.285199279072955</v>
+        <v>8.3652760442176675</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="3"/>
-        <v>20.741798345410643</v>
+        <v>20.741798345407005</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
-        <v>-0.74179834541064338</v>
+        <v>-0.7417983454070054</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2072,27 +3971,27 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>857.01910828025473</v>
+        <v>3323.9206349223996</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="3"/>
-        <v>-5.8600239853864936E-2</v>
+        <v>-4.1936705025255117E-3</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="3"/>
-        <v>30.441206492805222</v>
+        <v>8.4073496680634463</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="3"/>
-        <v>14.398027297618682</v>
+        <v>14.398027297615045</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>0.6019727023813175</v>
+        <v>0.60197270238495548</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,27 +4003,27 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>852.39490445859872</v>
+        <v>3306.4444444461997</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="3"/>
-        <v>-5.8733673535453529E-2</v>
+        <v>-4.203012631665488E-3</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="3"/>
-        <v>30.59844775561816</v>
+        <v>8.4497498215658293</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="3"/>
-        <v>7.6633350901538506</v>
+        <v>7.6633350901429367</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>2.3366649098461494</v>
+        <v>2.3366649098570633</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2136,27 +4035,27 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>834.66878980891715</v>
+        <v>3239.4523809540997</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="3"/>
-        <v>-5.9245169314876438E-2</v>
+        <v>-4.2388241267020607E-3</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="3"/>
-        <v>31.212638023301288</v>
+        <v>8.6153086777827106</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="3"/>
-        <v>-22.08281048873323</v>
+        <v>-22.082810488744144</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="4"/>
-        <v>27.08281048873323</v>
+        <v>27.082810488744144</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2168,42 +4067,42 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>756.828025477707</v>
+        <v>2945.2698412713999</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="2"/>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="3"/>
-        <v>-6.1491302954950963E-2</v>
+        <v>-4.3960833005583181E-3</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="3"/>
-        <v>34.124390397926568</v>
+        <v>9.3991260226221343</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="3"/>
-        <v>-248.00261064822189</v>
+        <v>-248.00261064828373</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="4"/>
-        <v>248.00261064822189</v>
+        <v>248.00261064828373</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="array" ref="D23:G23">LINEST(A2:A20,C2:C20^{1,2,3})</f>
-        <v>2.8855493125906239E-5</v>
+        <v>5.3456324779123107E-7</v>
       </c>
       <c r="E23">
-        <v>-8.3329948841616125E-2</v>
+        <v>-5.9705163125299207E-3</v>
       </c>
       <c r="F23">
-        <v>80.662731797373596</v>
+        <v>22.346777587473383</v>
       </c>
       <c r="G23">
-        <v>-26074.297616141412</v>
+        <v>-27930.965019386462</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2221,6 +4120,56 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3388</v>
+      </c>
+      <c r="C6">
+        <v>11.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>